--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_5.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_5.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9809440411520106</v>
+        <v>0.9316916755684868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8050053064416971</v>
+        <v>0.709108014125575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7781405540475299</v>
+        <v>0.6330101665893779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9492721204971917</v>
+        <v>0.8899818890103829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07932093743850148</v>
+        <v>0.2843352240620839</v>
       </c>
       <c r="G2" t="n">
-        <v>1.303930413692376</v>
+        <v>1.945196048976713</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7935783740221815</v>
+        <v>1.312701354816622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08591724981803088</v>
+        <v>0.4714334315342252</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6561833763179954</v>
+        <v>1.241861063936278</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2816397298651266</v>
+        <v>0.5332309293937139</v>
       </c>
       <c r="L2" t="n">
-        <v>2.219581366271321</v>
+        <v>0.9069844092847479</v>
       </c>
       <c r="M2" t="n">
-        <v>0.286075274074061</v>
+        <v>0.5416287834962926</v>
       </c>
       <c r="N2" t="n">
-        <v>135.0685063139248</v>
+        <v>36.51520274097975</v>
       </c>
       <c r="O2" t="n">
-        <v>276.4036788571412</v>
+        <v>73.47978632920558</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9806035386334919</v>
+        <v>0.9314688047053121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8046848467595114</v>
+        <v>0.7087781606620913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7776777263892726</v>
+        <v>0.6345909947490029</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9484725231555696</v>
+        <v>0.8903951445050953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08073828826217433</v>
+        <v>0.2852629299799948</v>
       </c>
       <c r="G3" t="n">
-        <v>1.306073329062733</v>
+        <v>1.947401780605864</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7952338817194782</v>
+        <v>1.307046824151327</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08727151901333938</v>
+        <v>0.4696626098556836</v>
       </c>
       <c r="J3" t="n">
-        <v>0.661939384736288</v>
+        <v>1.241735359531177</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2841448367684592</v>
+        <v>0.5341001123197736</v>
       </c>
       <c r="L3" t="n">
-        <v>2.241373527456517</v>
+        <v>0.9066809255561697</v>
       </c>
       <c r="M3" t="n">
-        <v>0.288619833906933</v>
+        <v>0.5425116551845737</v>
       </c>
       <c r="N3" t="n">
-        <v>135.0330847287984</v>
+        <v>36.50868792535665</v>
       </c>
       <c r="O3" t="n">
-        <v>276.3682572720148</v>
+        <v>73.47327151358246</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9802555861550506</v>
+        <v>0.9311093460647678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.804378555393868</v>
+        <v>0.708262449339349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7771318021775044</v>
+        <v>0.63700331005676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9476512288686355</v>
+        <v>0.891006489220407</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0821866497429154</v>
+        <v>0.2867591861676674</v>
       </c>
       <c r="G4" t="n">
-        <v>1.308121500835132</v>
+        <v>1.950850344595675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7971866209704683</v>
+        <v>1.298418112169558</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08866253608553405</v>
+        <v>0.467042965377176</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6680257987837304</v>
+        <v>1.241691590912044</v>
       </c>
       <c r="K4" t="n">
-        <v>0.286682140606832</v>
+        <v>0.5354990066915787</v>
       </c>
       <c r="L4" t="n">
-        <v>2.263642486076762</v>
+        <v>0.9061914499605349</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2911970977443868</v>
+        <v>0.5439325807443532</v>
       </c>
       <c r="N4" t="n">
-        <v>134.9975248039938</v>
+        <v>36.49822497605496</v>
       </c>
       <c r="O4" t="n">
-        <v>276.3326973472102</v>
+        <v>73.46280856428078</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.979173093635221</v>
+        <v>0.9301415593863197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7995435952508113</v>
+        <v>0.7069453067960347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.784638184240792</v>
+        <v>0.6428247472876656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9446671191582172</v>
+        <v>0.8923831920348574</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08669255375582799</v>
+        <v>0.2907876240535467</v>
       </c>
       <c r="G5" t="n">
-        <v>1.340452901574697</v>
+        <v>1.959658082847701</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7703367275751284</v>
+        <v>1.277595168740933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09371668977749398</v>
+        <v>0.4611437209147769</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6797623787743172</v>
+        <v>1.241596084615965</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2944359926296851</v>
+        <v>0.539247275425242</v>
       </c>
       <c r="L5" t="n">
-        <v>2.332922007345857</v>
+        <v>0.9048736127813715</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2990730651855915</v>
+        <v>0.5477398809636776</v>
       </c>
       <c r="N5" t="n">
-        <v>134.8907745681064</v>
+        <v>36.47032418500738</v>
       </c>
       <c r="O5" t="n">
-        <v>276.2259471113228</v>
+        <v>73.43490777323319</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.978762374155842</v>
+        <v>0.9293260060595794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7992134293376207</v>
+        <v>0.7059109153423881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7839682553695159</v>
+        <v>0.6471467424287628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9436941285163164</v>
+        <v>0.8933085098444838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08840218455365201</v>
+        <v>0.294182386548794</v>
       </c>
       <c r="G6" t="n">
-        <v>1.342660722556476</v>
+        <v>1.96657506326117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7727330243029753</v>
+        <v>1.262135642724906</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09536463329238451</v>
+        <v>0.4571786851008724</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6872300751754332</v>
+        <v>1.241517299853929</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2973250486481958</v>
+        <v>0.542385828123112</v>
       </c>
       <c r="L6" t="n">
-        <v>2.359208054026112</v>
+        <v>0.9037630720811294</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3020076209483972</v>
+        <v>0.5509278627291375</v>
       </c>
       <c r="N6" t="n">
-        <v>134.851717194997</v>
+        <v>36.44711068315561</v>
       </c>
       <c r="O6" t="n">
-        <v>276.1868897382134</v>
+        <v>73.41169427138144</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9783726658853175</v>
+        <v>0.9291490630824141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7987653234280627</v>
+        <v>0.7056930368116494</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7833895162259853</v>
+        <v>0.6480268173363355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9428160294292884</v>
+        <v>0.8934858725662435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09002435563368683</v>
+        <v>0.2949189164150617</v>
       </c>
       <c r="G7" t="n">
-        <v>1.345657208837029</v>
+        <v>1.968032017999459</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7748031406621605</v>
+        <v>1.258987665810194</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09685186002775367</v>
+        <v>0.4564186764459948</v>
       </c>
       <c r="J7" t="n">
-        <v>0.692858117496865</v>
+        <v>1.241539384537606</v>
       </c>
       <c r="K7" t="n">
-        <v>0.300040589976901</v>
+        <v>0.5430643759399632</v>
       </c>
       <c r="L7" t="n">
-        <v>2.384149383339683</v>
+        <v>0.9035221284526489</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3047659293384841</v>
+        <v>0.5516170969958051</v>
       </c>
       <c r="N7" t="n">
-        <v>134.8153500542206</v>
+        <v>36.44210964006621</v>
       </c>
       <c r="O7" t="n">
-        <v>276.150522597437</v>
+        <v>73.40669322829203</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9780664993479298</v>
+        <v>0.9283916298256081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.797912197117983</v>
+        <v>0.7047782593603256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7829045329547257</v>
+        <v>0.6515999234594279</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9429372859785201</v>
+        <v>0.8941676767113259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09129878201924009</v>
+        <v>0.2980717525675857</v>
       </c>
       <c r="G8" t="n">
-        <v>1.351362068400818</v>
+        <v>1.974149139028624</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7765378977025104</v>
+        <v>1.246206872388489</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09664648914817983</v>
+        <v>0.4534971095797831</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7003705718834503</v>
+        <v>1.241665144635081</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3021568831240488</v>
+        <v>0.5459594788696188</v>
       </c>
       <c r="L8" t="n">
-        <v>2.403744041732494</v>
+        <v>0.9024907299752961</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3069155519871825</v>
+        <v>0.5545577949025616</v>
       </c>
       <c r="N8" t="n">
-        <v>134.7872356637895</v>
+        <v>36.4208420820631</v>
       </c>
       <c r="O8" t="n">
-        <v>276.1224082070059</v>
+        <v>73.38542567028891</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9765512739574704</v>
+        <v>0.9277674902511204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7969245813547019</v>
+        <v>0.7040544646756363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7793373219382294</v>
+        <v>0.6543325177680896</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9399184422197344</v>
+        <v>0.8946404589292591</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09760594815874593</v>
+        <v>0.3006697502089405</v>
       </c>
       <c r="G9" t="n">
-        <v>1.357966259557431</v>
+        <v>1.978989157417909</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7892976046697386</v>
+        <v>1.236432540991327</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1017594715146285</v>
+        <v>0.4514712127400375</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7335323264593469</v>
+        <v>1.241857704737775</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3124195066873161</v>
+        <v>0.5483336121458728</v>
       </c>
       <c r="L9" t="n">
-        <v>2.500718466721892</v>
+        <v>0.9016408377887597</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3173398016127114</v>
+        <v>0.5569693184046541</v>
       </c>
       <c r="N9" t="n">
-        <v>134.6536336863414</v>
+        <v>36.40348558391275</v>
       </c>
       <c r="O9" t="n">
-        <v>275.9888062295577</v>
+        <v>73.36806917213858</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9763940658773583</v>
+        <v>0.9255727229157854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.796408094410139</v>
+        <v>0.7016213514017392</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7793942890793621</v>
+        <v>0.6628052289840496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9398115109558991</v>
+        <v>0.8958511550760532</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09826033098917032</v>
+        <v>0.3098055278356088</v>
       </c>
       <c r="G10" t="n">
-        <v>1.361420010133926</v>
+        <v>1.995259397083915</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7890938365090514</v>
+        <v>1.206126144247862</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1019405798163817</v>
+        <v>0.44628331563933</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7345907263763004</v>
+        <v>1.242871014970319</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3134650395006919</v>
+        <v>0.5566017677259109</v>
       </c>
       <c r="L10" t="n">
-        <v>2.510779783849067</v>
+        <v>0.8986522184385163</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3184018005227485</v>
+        <v>0.5653676891699543</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6402697674873</v>
+        <v>36.34362101583804</v>
       </c>
       <c r="O10" t="n">
-        <v>275.9754423107037</v>
+        <v>73.30820460406386</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9697751063175208</v>
+        <v>0.9139645066708555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7860851733719759</v>
+        <v>0.6904185091265423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7703560748083971</v>
+        <v>0.6923863324540143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9278142448599258</v>
+        <v>0.8961629505131057</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12581192686225</v>
+        <v>0.3581250378577365</v>
       </c>
       <c r="G11" t="n">
-        <v>1.430449430648804</v>
+        <v>2.070172854962502</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8214230048905192</v>
+        <v>1.100316252346727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1222602170337046</v>
+        <v>0.4449472556806178</v>
       </c>
       <c r="J11" t="n">
-        <v>0.823926564410012</v>
+        <v>1.248059329158652</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3546997700341094</v>
+        <v>0.598435491809883</v>
       </c>
       <c r="L11" t="n">
-        <v>2.934393195678666</v>
+        <v>0.8828452856794629</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3602859368424591</v>
+        <v>0.6078602525898671</v>
       </c>
       <c r="N11" t="n">
-        <v>134.1459342621676</v>
+        <v>36.05374617160437</v>
       </c>
       <c r="O11" t="n">
-        <v>275.481106805384</v>
+        <v>73.01832975983018</v>
       </c>
     </row>
   </sheetData>
